--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/5..xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/5..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Kilépési feltétel:</t>
   </si>
@@ -57,16 +57,28 @@
   </si>
   <si>
     <t>Nyitrainé Tóth Anikó</t>
+  </si>
+  <si>
+    <t>http://www.mintantermunk.nhely.hu/web/index.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -288,8 +300,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -308,7 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,8 +329,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,7 +614,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +657,9 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -655,43 +671,46 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/5..xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/5..xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aniko\Desktop\Projekt\Projlab2019lev\Tesztdokumentáció\Elvégzett tesztek\Komponensek-Unit tesztek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyitrainé\Desktop\Egyetem\Projekt labor\Projlab2019lev\Tesztdokumentáció\Elvégzett tesztek\Komponensek-Unit tesztek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t>Teszt szám:</t>
   </si>
   <si>
-    <t>2019.05.14-16</t>
-  </si>
-  <si>
     <t>Tesztlépés:</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>http://www.mintantermunk.nhely.hu/web/index.htm</t>
+  </si>
+  <si>
+    <t>2019.05.14-17</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -677,7 +677,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -685,7 +685,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>

--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/5..xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/5..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Kilépési feltétel:</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>2019.05.14-17</t>
+  </si>
+  <si>
+    <t>Ovis oldal</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +674,9 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="15"/>
       <c r="D5" s="5"/>
     </row>
